--- a/forms/app/pcime_c_referral.xlsx
+++ b/forms/app/pcime_c_referral.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="222">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -150,6 +150,9 @@
     <t xml:space="preserve">contact</t>
   </si>
   <si>
+    <t xml:space="preserve">NO_LABEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">db:person</t>
   </si>
   <si>
@@ -399,7 +402,7 @@
     <t xml:space="preserve">Est ce que l’enfant s’est rendu à l’hopital après sa dernière référence ?</t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal</t>
+    <t xml:space="preserve">columns</t>
   </si>
   <si>
     <t xml:space="preserve">select_one why_child_dont_go_hospital</t>
@@ -1284,10 +1287,10 @@
   </sheetPr>
   <dimension ref="A1:IZ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+      <selection pane="bottomLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2791,8 +2794,12 @@
       <c r="B9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -2808,41 +2815,41 @@
     </row>
     <row r="10" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
       <c r="K10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2853,10 +2860,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -3122,13 +3129,13 @@
         <v>22</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -3396,13 +3403,13 @@
         <v>22</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -3668,13 +3675,13 @@
         <v>22</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -3937,7 +3944,7 @@
     </row>
     <row r="15" s="15" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -3957,7 +3964,7 @@
     </row>
     <row r="16" s="15" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -3977,16 +3984,16 @@
     </row>
     <row r="18" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -4001,22 +4008,22 @@
       <c r="M18" s="7"/>
       <c r="N18" s="8"/>
       <c r="O18" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P18" s="8"/>
     </row>
     <row r="19" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -4031,22 +4038,22 @@
       <c r="M19" s="7"/>
       <c r="N19" s="8"/>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P19" s="8"/>
     </row>
     <row r="20" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -4059,7 +4066,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="8"/>
       <c r="O20" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="10"/>
@@ -4309,10 +4316,10 @@
     </row>
     <row r="21" s="12" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4327,7 +4334,7 @@
       <c r="M21" s="7"/>
       <c r="N21" s="8"/>
       <c r="O21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="10"/>
@@ -4577,10 +4584,10 @@
     </row>
     <row r="22" s="12" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4595,7 +4602,7 @@
       <c r="M22" s="7"/>
       <c r="N22" s="8"/>
       <c r="O22" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="10"/>
@@ -4845,25 +4852,25 @@
     </row>
     <row r="23" s="12" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4873,7 +4880,7 @@
       <c r="M23" s="7"/>
       <c r="N23" s="8"/>
       <c r="O23" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="10"/>
@@ -5123,16 +5130,16 @@
     </row>
     <row r="24" s="12" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -5145,7 +5152,7 @@
       <c r="M24" s="7"/>
       <c r="N24" s="8"/>
       <c r="O24" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="10"/>
@@ -5395,16 +5402,16 @@
     </row>
     <row r="25" s="19" customFormat="true" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -5417,7 +5424,7 @@
       <c r="M25" s="18"/>
       <c r="N25" s="17"/>
       <c r="O25" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P25" s="17"/>
       <c r="Q25" s="18"/>
@@ -5434,16 +5441,16 @@
     </row>
     <row r="26" s="19" customFormat="true" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -5456,7 +5463,7 @@
       <c r="M26" s="18"/>
       <c r="N26" s="17"/>
       <c r="O26" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P26" s="17"/>
       <c r="Q26" s="18"/>
@@ -5473,16 +5480,16 @@
     </row>
     <row r="27" s="19" customFormat="true" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -5495,7 +5502,7 @@
       <c r="M27" s="18"/>
       <c r="N27" s="17"/>
       <c r="O27" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P27" s="17"/>
       <c r="Q27" s="18"/>
@@ -5512,19 +5519,19 @@
     </row>
     <row r="28" s="19" customFormat="true" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -5536,7 +5543,7 @@
       <c r="M28" s="18"/>
       <c r="N28" s="17"/>
       <c r="O28" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P28" s="17"/>
       <c r="Q28" s="18"/>
@@ -5815,10 +5822,10 @@
     </row>
     <row r="30" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="20"/>
@@ -5833,7 +5840,7 @@
       <c r="M30" s="20"/>
       <c r="N30" s="21"/>
       <c r="O30" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="10"/>
@@ -6348,13 +6355,13 @@
         <v>17</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
@@ -6387,23 +6394,23 @@
     </row>
     <row r="33" s="24" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -6429,23 +6436,23 @@
     </row>
     <row r="34" s="24" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -6471,23 +6478,23 @@
     </row>
     <row r="35" s="24" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -6545,28 +6552,28 @@
     </row>
     <row r="37" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I37" s="25"/>
       <c r="J37" s="1"/>
@@ -6593,29 +6600,29 @@
     </row>
     <row r="38" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -6641,29 +6648,29 @@
     </row>
     <row r="39" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -6689,29 +6696,29 @@
     </row>
     <row r="40" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -6737,31 +6744,31 @@
     </row>
     <row r="41" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -6819,7 +6826,7 @@
     </row>
     <row r="43" s="6" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -6888,15 +6895,19 @@
         <v>17</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+        <v>146</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
@@ -6923,22 +6934,22 @@
     </row>
     <row r="46" s="28" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E46" s="27"/>
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J46" s="27"/>
       <c r="K46" s="27"/>
@@ -6964,16 +6975,16 @@
     </row>
     <row r="47" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -7004,25 +7015,25 @@
     </row>
     <row r="48" s="31" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E48" s="29"/>
       <c r="F48" s="29"/>
       <c r="G48" s="29"/>
       <c r="H48" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I48" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J48" s="30"/>
       <c r="K48" s="30"/>
@@ -7048,47 +7059,47 @@
     </row>
     <row r="49" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F49" s="32"/>
       <c r="H49" s="32"/>
       <c r="I49" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K49" s="32"/>
       <c r="L49" s="32"/>
     </row>
     <row r="50" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E50" s="35"/>
       <c r="F50" s="12"/>
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
       <c r="I50" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
@@ -7129,58 +7140,58 @@
     </row>
     <row r="51" s="38" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H51" s="38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" s="12" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" s="12" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I53" s="25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" s="41" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54" s="40"/>
       <c r="C54" s="40"/>
@@ -7323,7 +7334,7 @@
   <sheetData>
     <row r="1" s="45" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B1" s="43" t="s">
         <v>1</v>
@@ -7358,16 +7369,16 @@
     </row>
     <row r="2" s="48" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
@@ -7393,16 +7404,16 @@
     </row>
     <row r="3" s="48" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
@@ -7455,16 +7466,16 @@
     </row>
     <row r="5" s="48" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="47"/>
@@ -7490,16 +7501,16 @@
     </row>
     <row r="6" s="48" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="47"/>
@@ -7525,16 +7536,16 @@
     </row>
     <row r="7" s="48" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="47"/>
@@ -7560,86 +7571,86 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7735,7 +7746,7 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -7752,22 +7763,22 @@
   <sheetData>
     <row r="1" s="55" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
@@ -7792,19 +7803,19 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F2" s="58"/>
       <c r="G2" s="59"/>
